--- a/fig-2/fig2.xlsx
+++ b/fig-2/fig2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="-20" windowWidth="25360" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Decade</t>
   </si>
@@ -102,7 +102,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -117,89 +117,88 @@
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1750.0</c:v>
+                  <c:v>1750-1759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1790.0</c:v>
+                  <c:v>1790-1799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800-1809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1810.0</c:v>
+                  <c:v>1810-1819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1820.0</c:v>
+                  <c:v>1820-1829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1830.0</c:v>
+                  <c:v>1830-1839</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1840.0</c:v>
+                  <c:v>1840-1849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1850.0</c:v>
+                  <c:v>1850-1859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1860.0</c:v>
+                  <c:v>1860-1869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1870.0</c:v>
+                  <c:v>1870-1879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1880.0</c:v>
+                  <c:v>1880-1889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1890.0</c:v>
+                  <c:v>1890-1899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900-1909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1910.0</c:v>
+                  <c:v>1910-1919</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1920.0</c:v>
+                  <c:v>1920-1929</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1930.0</c:v>
+                  <c:v>1930-1939</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1940.0</c:v>
+                  <c:v>1940-1949</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1950.0</c:v>
+                  <c:v>1950-1959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1960.0</c:v>
+                  <c:v>1960-1969</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1970.0</c:v>
+                  <c:v>1970-1979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1980.0</c:v>
+                  <c:v>1980-1989</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1990.0</c:v>
+                  <c:v>1990-1999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000-2009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2010-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -284,7 +283,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -309,89 +308,88 @@
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1750.0</c:v>
+                  <c:v>1750-1759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1790.0</c:v>
+                  <c:v>1790-1799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800-1809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1810.0</c:v>
+                  <c:v>1810-1819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1820.0</c:v>
+                  <c:v>1820-1829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1830.0</c:v>
+                  <c:v>1830-1839</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1840.0</c:v>
+                  <c:v>1840-1849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1850.0</c:v>
+                  <c:v>1850-1859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1860.0</c:v>
+                  <c:v>1860-1869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1870.0</c:v>
+                  <c:v>1870-1879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1880.0</c:v>
+                  <c:v>1880-1889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1890.0</c:v>
+                  <c:v>1890-1899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900-1909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1910.0</c:v>
+                  <c:v>1910-1919</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1920.0</c:v>
+                  <c:v>1920-1929</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1930.0</c:v>
+                  <c:v>1930-1939</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1940.0</c:v>
+                  <c:v>1940-1949</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1950.0</c:v>
+                  <c:v>1950-1959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1960.0</c:v>
+                  <c:v>1960-1969</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1970.0</c:v>
+                  <c:v>1970-1979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1980.0</c:v>
+                  <c:v>1980-1989</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1990.0</c:v>
+                  <c:v>1990-1999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000-2009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2010-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -479,11 +477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127111656"/>
-        <c:axId val="2135100440"/>
+        <c:axId val="2100794424"/>
+        <c:axId val="2100799656"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2127111656"/>
+        <c:axId val="2100794424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135100440"/>
+        <c:crossAx val="2100799656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -534,7 +532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135100440"/>
+        <c:axId val="2100799656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127111656"/>
+        <c:crossAx val="2100794424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -630,13 +628,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -983,436 +981,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1750</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
+        <f>CONCATENATE(A2,"-",A2+9)</f>
+        <v>1750-1759</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1750</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1790</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B25" si="0">CONCATENATE(A3,"-",A3+9)</f>
+        <v>1790-1799</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1790</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1800</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>1800-1809</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1800</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1810</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>1810-1819</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1810</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1820</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>1820-1829</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1820</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1830</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>1830-1839</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1830</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1840</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>1840-1849</v>
+      </c>
+      <c r="C8">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1840</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1850</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>1850-1859</v>
+      </c>
+      <c r="C9">
         <v>31</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1850</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1860</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>1860-1869</v>
+      </c>
+      <c r="C10">
         <v>239</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>660</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1860</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-421</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1870</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>1870-1879</v>
+      </c>
+      <c r="C11">
         <v>628</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1032</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1870</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-404</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1880</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>1880-1889</v>
+      </c>
+      <c r="C12">
         <v>1148</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2639</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1880</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-1491</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1890</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>1890-1899</v>
+      </c>
+      <c r="C13">
         <v>1529</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2841</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1890</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-1312</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1900</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>1900-1909</v>
+      </c>
+      <c r="C14">
         <v>3455</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5520</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1900</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-2065</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1910</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>1910-1919</v>
+      </c>
+      <c r="C15">
         <v>6345</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8272</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1910</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-1927</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1920</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>1920-1929</v>
+      </c>
+      <c r="C16">
         <v>6368</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>13828</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1920</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-7460</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1930</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>1930-1939</v>
+      </c>
+      <c r="C17">
         <v>6322</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>17516</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1930</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-11194</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1940</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>1940-1949</v>
+      </c>
+      <c r="C18">
         <v>4592</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>11083</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1940</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-6491</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1950</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>1950-1959</v>
+      </c>
+      <c r="C19">
         <v>7548</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>17642</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1950</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-10094</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1960</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>1960-1969</v>
+      </c>
+      <c r="C20">
         <v>10573</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>21887</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1960</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-11314</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1970</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>1970-1979</v>
+      </c>
+      <c r="C21">
         <v>13822</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>30246</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1970</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-16424</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1980</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>1980-1989</v>
+      </c>
+      <c r="C22">
         <v>20453</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>32595</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1980</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-12142</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1990</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>1990-1999</v>
+      </c>
+      <c r="C23">
         <v>21839</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>32144</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1990</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-10305</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2000</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>2000-2009</v>
+      </c>
+      <c r="C24">
         <v>31834</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>28484</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3350</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2010</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-2019</v>
+      </c>
+      <c r="C25">
         <v>21119</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>11375</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2010</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>9744</v>
       </c>
     </row>

--- a/fig-2/fig2.xlsx
+++ b/fig-2/fig2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-20" windowWidth="25360" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Decade</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>Add rows</t>
   </si>
 </sst>
 </file>
@@ -118,79 +121,88 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1750-1759</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1760-1769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1770-1779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1780-1789</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1790-1799</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>1800-1809</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1810-1819</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>1820-1829</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>1830-1839</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>1840-1849</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>1850-1859</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>1860-1869</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>1870-1879</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>1880-1889</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>1890-1899</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>1900-1909</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>1910-1919</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>1920-1929</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1930-1939</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1940-1949</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>1950-1959</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>1960-1969</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>1970-1979</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>1980-1989</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>1990-1999</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>2000-2009</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>2010-2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -198,80 +210,89 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:f>Sheet1!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>239.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>628.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>1148.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>1529.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>3455.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>6345.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>6368.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>6322.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>4592.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>7548.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>10573.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>13822.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>20453.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>21839.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>31834.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>21119.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -309,79 +330,88 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1750-1759</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1760-1769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1770-1779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1780-1789</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1790-1799</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>1800-1809</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1810-1819</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>1820-1829</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>1830-1839</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>1840-1849</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>1850-1859</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>1860-1869</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>1870-1879</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>1880-1889</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>1890-1899</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>1900-1909</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>1910-1919</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>1920-1929</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1930-1939</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1940-1949</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>1950-1959</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>1960-1969</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>1970-1979</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>1980-1989</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>1990-1999</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>2000-2009</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>2010-2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -389,10 +419,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:f>Sheet1!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -406,7 +436,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -418,51 +448,60 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>660.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>1032.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>2639.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>2841.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>5520.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>8272.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>13828.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>17516.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>11083.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>17642.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>21887.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>30246.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>32595.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>32144.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>28484.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>11375.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -477,11 +516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2100794424"/>
-        <c:axId val="2100799656"/>
+        <c:axId val="2083842296"/>
+        <c:axId val="2083847624"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2100794424"/>
+        <c:axId val="2083842296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,12 +557,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400"/>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100799656"/>
+        <c:crossAx val="2083847624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -532,7 +574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100799656"/>
+        <c:axId val="2083847624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100794424"/>
+        <c:crossAx val="2083842296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -636,7 +678,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -981,15 +1023,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1750</v>
       </c>
@@ -1030,486 +1072,534 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>1790</v>
+        <v>1760</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B25" si="0">CONCATENATE(A3,"-",A3+9)</f>
-        <v>1790-1799</v>
+        <f t="shared" ref="B3:B5" si="0">CONCATENATE(A3,"-",A3+9)</f>
+        <v>1760-1769</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1790</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>1800</v>
+        <v>1770</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>1800-1809</v>
+        <v>1770-1779</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1800</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>1810</v>
+        <v>1780</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>1810-1819</v>
+        <v>1780-1789</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1810</v>
-      </c>
-      <c r="F5">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1790</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B28" si="1">CONCATENATE(A6,"-",A6+9)</f>
+        <v>1790-1799</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1820</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>1820-1829</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1820</v>
+        <v>1790</v>
       </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>1830-1839</v>
+        <f t="shared" si="1"/>
+        <v>1800-1809</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1830</v>
+        <v>1800</v>
       </c>
       <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>1840</v>
+        <v>1810</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>1840-1849</v>
+        <f t="shared" si="1"/>
+        <v>1810-1819</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1840</v>
+        <v>1810</v>
       </c>
       <c r="F8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>1850</v>
+        <v>1820</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>1850-1859</v>
+        <f t="shared" si="1"/>
+        <v>1820-1829</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
+        <v>1820</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1830</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>1830-1839</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1830</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>1840</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>1840-1849</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1840</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>1850</v>
       </c>
-      <c r="F9">
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>1850-1859</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1850</v>
+      </c>
+      <c r="F12">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="13" spans="1:7">
+      <c r="A13">
         <v>1860</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
         <v>1860-1869</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>239</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>660</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>1860</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>-421</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>1870</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
         <v>1870-1879</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>628</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>1032</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>1870</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>-404</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>1880</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
         <v>1880-1889</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>1148</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>2639</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>1880</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>-1491</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="16" spans="1:7">
+      <c r="A16">
         <v>1890</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
         <v>1890-1899</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>1529</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>2841</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>1890</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>-1312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>1900</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>1900-1909</v>
-      </c>
-      <c r="C14">
-        <v>3455</v>
-      </c>
-      <c r="D14">
-        <v>5520</v>
-      </c>
-      <c r="E14">
-        <v>1900</v>
-      </c>
-      <c r="F14">
-        <v>-2065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>1910</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>1910-1919</v>
-      </c>
-      <c r="C15">
-        <v>6345</v>
-      </c>
-      <c r="D15">
-        <v>8272</v>
-      </c>
-      <c r="E15">
-        <v>1910</v>
-      </c>
-      <c r="F15">
-        <v>-1927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>1920</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>1920-1929</v>
-      </c>
-      <c r="C16">
-        <v>6368</v>
-      </c>
-      <c r="D16">
-        <v>13828</v>
-      </c>
-      <c r="E16">
-        <v>1920</v>
-      </c>
-      <c r="F16">
-        <v>-7460</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>1930-1939</v>
+        <f t="shared" si="1"/>
+        <v>1900-1909</v>
       </c>
       <c r="C17">
-        <v>6322</v>
+        <v>3455</v>
       </c>
       <c r="D17">
-        <v>17516</v>
+        <v>5520</v>
       </c>
       <c r="E17">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="F17">
-        <v>-11194</v>
+        <v>-2065</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>1940-1949</v>
+        <f t="shared" si="1"/>
+        <v>1910-1919</v>
       </c>
       <c r="C18">
-        <v>4592</v>
+        <v>6345</v>
       </c>
       <c r="D18">
-        <v>11083</v>
+        <v>8272</v>
       </c>
       <c r="E18">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="F18">
-        <v>-6491</v>
+        <v>-1927</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>1950</v>
+        <v>1920</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>1950-1959</v>
+        <f t="shared" si="1"/>
+        <v>1920-1929</v>
       </c>
       <c r="C19">
-        <v>7548</v>
+        <v>6368</v>
       </c>
       <c r="D19">
-        <v>17642</v>
+        <v>13828</v>
       </c>
       <c r="E19">
-        <v>1950</v>
+        <v>1920</v>
       </c>
       <c r="F19">
-        <v>-10094</v>
+        <v>-7460</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>1960</v>
+        <v>1930</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>1960-1969</v>
+        <f t="shared" si="1"/>
+        <v>1930-1939</v>
       </c>
       <c r="C20">
-        <v>10573</v>
+        <v>6322</v>
       </c>
       <c r="D20">
-        <v>21887</v>
+        <v>17516</v>
       </c>
       <c r="E20">
-        <v>1960</v>
+        <v>1930</v>
       </c>
       <c r="F20">
-        <v>-11314</v>
+        <v>-11194</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>1970-1979</v>
+        <f t="shared" si="1"/>
+        <v>1940-1949</v>
       </c>
       <c r="C21">
-        <v>13822</v>
+        <v>4592</v>
       </c>
       <c r="D21">
-        <v>30246</v>
+        <v>11083</v>
       </c>
       <c r="E21">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="F21">
-        <v>-16424</v>
+        <v>-6491</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>1980-1989</v>
+        <f t="shared" si="1"/>
+        <v>1950-1959</v>
       </c>
       <c r="C22">
-        <v>20453</v>
+        <v>7548</v>
       </c>
       <c r="D22">
-        <v>32595</v>
+        <v>17642</v>
       </c>
       <c r="E22">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="F22">
-        <v>-12142</v>
+        <v>-10094</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>1990-1999</v>
+        <f t="shared" si="1"/>
+        <v>1960-1969</v>
       </c>
       <c r="C23">
-        <v>21839</v>
+        <v>10573</v>
       </c>
       <c r="D23">
-        <v>32144</v>
+        <v>21887</v>
       </c>
       <c r="E23">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="F23">
-        <v>-10305</v>
+        <v>-11314</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>2000-2009</v>
+        <f t="shared" si="1"/>
+        <v>1970-1979</v>
       </c>
       <c r="C24">
-        <v>31834</v>
+        <v>13822</v>
       </c>
       <c r="D24">
-        <v>28484</v>
+        <v>30246</v>
       </c>
       <c r="E24">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="F24">
-        <v>3350</v>
+        <v>-16424</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
+        <v>1980</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>1980-1989</v>
+      </c>
+      <c r="C25">
+        <v>20453</v>
+      </c>
+      <c r="D25">
+        <v>32595</v>
+      </c>
+      <c r="E25">
+        <v>1980</v>
+      </c>
+      <c r="F25">
+        <v>-12142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1990</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>1990-1999</v>
+      </c>
+      <c r="C26">
+        <v>21839</v>
+      </c>
+      <c r="D26">
+        <v>32144</v>
+      </c>
+      <c r="E26">
+        <v>1990</v>
+      </c>
+      <c r="F26">
+        <v>-10305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>2000-2009</v>
+      </c>
+      <c r="C27">
+        <v>31834</v>
+      </c>
+      <c r="D27">
+        <v>28484</v>
+      </c>
+      <c r="E27">
+        <v>2000</v>
+      </c>
+      <c r="F27">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
         <v>2010</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
         <v>2010-2019</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>21119</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>11375</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>2010</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>9744</v>
       </c>
     </row>
